--- a/analysis_sample/6_mili_admin/6_features.xlsx
+++ b/analysis_sample/6_mili_admin/6_features.xlsx
@@ -1,16 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10210"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brantiusxiong/GitHub/汉书-地理志/analysis_sample/6_mili_admin/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B873F4B-DE41-544C-979C-79EEFA576D75}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet name="6_features" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="6_features" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="208">
   <si>
     <t>name</t>
   </si>
@@ -628,33 +638,49 @@
   </si>
   <si>
     <t>阳关</t>
+  </si>
+  <si>
+    <t>郡治</t>
+    <rPh sb="0" eb="1">
+      <t>c</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郡治</t>
+    <rPh sb="0" eb="2">
+      <t>jun'zhi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-    <numFmt formatCode="DD/MM/YY" numFmtId="165"/>
-    <numFmt formatCode="DD/MM/YYYY\ HH:MM:SS" numFmtId="166"/>
-    <numFmt formatCode="HH:MM:SS" numFmtId="167"/>
-    <numFmt formatCode="DD/MM/YYYY\ HH:MM:SS.000" numFmtId="168"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Adobe Fangsong Std R"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="1">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border diagonalDown="false" diagonalUp="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -663,41 +689,338 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="164">
-</xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="164" xfId="0"/>
-    <xf numFmtId="165" xfId="0"/>
-    <xf numFmtId="166" xfId="0"/>
-    <xf numFmtId="167" xfId="0"/>
-    <xf numFmtId="168" xfId="0"/>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M90"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1024" width="15"/>
-    <col min="2" max="1024" width="15"/>
-    <col min="3" max="1024" width="15"/>
-    <col min="4" max="1024" width="15"/>
-    <col min="5" max="1024" width="15"/>
-    <col min="6" max="1024" width="15"/>
-    <col min="7" max="1024" width="15"/>
-    <col min="8" max="1024" width="15"/>
-    <col min="9" max="1024" width="15"/>
-    <col min="10" max="1024" width="15"/>
+    <col min="1" max="8" width="15"/>
+    <col min="9" max="10" width="0" hidden="1" customWidth="1"/>
     <col min="11" max="1024" width="15"/>
-    <col min="12" max="1024" width="15"/>
-    <col min="13" max="1024" width="15"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -738,7 +1061,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -773,13 +1096,13 @@
         <v>21</v>
       </c>
       <c r="L2">
-        <v>104.5330679000000060</v>
+        <v>104.53306790000001</v>
       </c>
       <c r="M2">
-        <v>34.0620368000000013</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>34.062036800000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -814,18 +1137,18 @@
         <v>21</v>
       </c>
       <c r="L3">
-        <v>104.5330679000000060</v>
+        <v>104.53306790000001</v>
       </c>
       <c r="M3">
-        <v>34.0620368000000013</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>34.062036800000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>206</v>
       </c>
       <c r="C4" t="s">
         <v>25</v>
@@ -855,13 +1178,13 @@
         <v>21</v>
       </c>
       <c r="L4">
-        <v>104.5330679000000060</v>
+        <v>104.53306790000001</v>
       </c>
       <c r="M4">
-        <v>34.0620368000000013</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>34.062036800000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -896,13 +1219,13 @@
         <v>29</v>
       </c>
       <c r="L5">
-        <v>105.7204773999999929</v>
+        <v>105.72047739999999</v>
       </c>
       <c r="M5">
-        <v>34.0717222999999976</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>34.071722299999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -937,13 +1260,13 @@
         <v>33</v>
       </c>
       <c r="L6">
-        <v>106.4495900000000006</v>
+        <v>106.44959</v>
       </c>
       <c r="M6">
-        <v>33.2727399999999989</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>33.272739999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -978,13 +1301,13 @@
         <v>21</v>
       </c>
       <c r="L7">
-        <v>103.3387070999999935</v>
+        <v>103.33870709999999</v>
       </c>
       <c r="M7">
-        <v>35.5031827999999976</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>35.503182799999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -1019,13 +1342,13 @@
         <v>33</v>
       </c>
       <c r="L8">
-        <v>104.2101700000000051</v>
+        <v>104.21017000000001</v>
       </c>
       <c r="M8">
-        <v>35.1394900000000021</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>35.139490000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -1060,13 +1383,13 @@
         <v>33</v>
       </c>
       <c r="L9">
-        <v>104.0302499999999952</v>
+        <v>104.03025</v>
       </c>
       <c r="M9">
-        <v>34.4364599999999967</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>34.436459999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -1101,13 +1424,13 @@
         <v>33</v>
       </c>
       <c r="L10">
-        <v>104.0302499999999952</v>
+        <v>104.03025</v>
       </c>
       <c r="M10">
-        <v>34.4364599999999967</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>34.436459999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -1142,18 +1465,18 @@
         <v>49</v>
       </c>
       <c r="L11">
-        <v>105.8711100000000016</v>
+        <v>105.87111</v>
       </c>
       <c r="M11">
-        <v>34.4075599999999966</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>34.407559999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="C12" t="s">
         <v>25</v>
@@ -1183,13 +1506,13 @@
         <v>21</v>
       </c>
       <c r="L12">
-        <v>103.3387070999999935</v>
+        <v>103.33870709999999</v>
       </c>
       <c r="M12">
-        <v>35.5031827999999976</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>35.503182799999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -1224,13 +1547,13 @@
         <v>29</v>
       </c>
       <c r="L13">
-        <v>104.9070083999999952</v>
+        <v>104.9070084</v>
       </c>
       <c r="M13">
-        <v>34.4274412999999981</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>34.427441299999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>40</v>
       </c>
@@ -1265,13 +1588,13 @@
         <v>33</v>
       </c>
       <c r="L14">
-        <v>104.2101700000000051</v>
+        <v>104.21017000000001</v>
       </c>
       <c r="M14">
-        <v>35.1394900000000021</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>35.139490000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -1306,13 +1629,13 @@
         <v>33</v>
       </c>
       <c r="L15">
-        <v>104.2933565000000016</v>
+        <v>104.2933565</v>
       </c>
       <c r="M15">
-        <v>33.8425538999999986</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>33.842553899999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -1347,13 +1670,13 @@
         <v>33</v>
       </c>
       <c r="L16">
-        <v>104.0302499999999952</v>
+        <v>104.03025</v>
       </c>
       <c r="M16">
-        <v>34.4364599999999967</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>34.436459999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -1388,13 +1711,13 @@
         <v>49</v>
       </c>
       <c r="L17">
-        <v>105.8711100000000016</v>
+        <v>105.87111</v>
       </c>
       <c r="M17">
-        <v>34.4075599999999966</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>34.407559999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>59</v>
       </c>
@@ -1429,13 +1752,13 @@
         <v>49</v>
       </c>
       <c r="L18">
-        <v>105.3887799999999970</v>
+        <v>105.38878</v>
       </c>
       <c r="M18">
-        <v>34.7383700000000033</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>34.738370000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -1464,7 +1787,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>65</v>
       </c>
@@ -1493,12 +1816,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>68</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>207</v>
       </c>
       <c r="C21" t="s">
         <v>25</v>
@@ -1528,13 +1851,13 @@
         <v>70</v>
       </c>
       <c r="L21">
-        <v>105.1379340000000013</v>
+        <v>105.137934</v>
       </c>
       <c r="M21">
-        <v>35.2160744999999977</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>35.216074499999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -1569,13 +1892,13 @@
         <v>49</v>
       </c>
       <c r="L22">
-        <v>105.3887799999999970</v>
+        <v>105.38878</v>
       </c>
       <c r="M22">
-        <v>34.7383700000000033</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>34.738370000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>72</v>
       </c>
@@ -1610,13 +1933,13 @@
         <v>75</v>
       </c>
       <c r="L23">
-        <v>104.1570114000000018</v>
+        <v>104.1570114</v>
       </c>
       <c r="M23">
-        <v>35.9424261999999999</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>35.9424262</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>76</v>
       </c>
@@ -1651,13 +1974,13 @@
         <v>75</v>
       </c>
       <c r="L24">
-        <v>103.0252054000000044</v>
+        <v>103.0252054</v>
       </c>
       <c r="M24">
-        <v>36.1605472000000034</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>36.160547200000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>76</v>
       </c>
@@ -1692,13 +2015,13 @@
         <v>75</v>
       </c>
       <c r="L25">
-        <v>103.0252054000000044</v>
+        <v>103.0252054</v>
       </c>
       <c r="M25">
-        <v>36.1605472000000034</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>36.160547200000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>83</v>
       </c>
@@ -1733,13 +2056,13 @@
         <v>21</v>
       </c>
       <c r="L26">
-        <v>102.8303604000000036</v>
+        <v>102.8303604</v>
       </c>
       <c r="M26">
-        <v>36.5864592000000002</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>36.5864592</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>86</v>
       </c>
@@ -1774,13 +2097,13 @@
         <v>21</v>
       </c>
       <c r="L27">
-        <v>102.7681814000000031</v>
+        <v>102.7681814</v>
       </c>
       <c r="M27">
-        <v>36.6287402000000029</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>36.628740200000003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>89</v>
       </c>
@@ -1815,13 +2138,13 @@
         <v>91</v>
       </c>
       <c r="L28">
-        <v>102.9810099999999977</v>
+        <v>102.98101</v>
       </c>
       <c r="M28">
-        <v>35.4966700000000017</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>35.496670000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>92</v>
       </c>
@@ -1856,13 +2179,13 @@
         <v>33</v>
       </c>
       <c r="L29">
-        <v>102.0572484000000060</v>
+        <v>102.05724840000001</v>
       </c>
       <c r="M29">
-        <v>35.6167871999999974</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>35.616787199999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>94</v>
       </c>
@@ -1897,13 +2220,13 @@
         <v>97</v>
       </c>
       <c r="L30">
-        <v>101.2867700000000042</v>
+        <v>101.28677</v>
       </c>
       <c r="M30">
-        <v>36.6748199999999969</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>36.674819999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>94</v>
       </c>
@@ -1938,13 +2261,13 @@
         <v>97</v>
       </c>
       <c r="L31">
-        <v>101.2867700000000042</v>
+        <v>101.28677</v>
       </c>
       <c r="M31">
-        <v>36.6748199999999969</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>36.674819999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>94</v>
       </c>
@@ -1979,13 +2302,13 @@
         <v>97</v>
       </c>
       <c r="L32">
-        <v>101.2867700000000042</v>
+        <v>101.28677</v>
       </c>
       <c r="M32">
-        <v>36.6748199999999969</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>36.674819999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>94</v>
       </c>
@@ -2020,13 +2343,13 @@
         <v>97</v>
       </c>
       <c r="L33">
-        <v>101.2867700000000042</v>
+        <v>101.28677</v>
       </c>
       <c r="M33">
-        <v>36.6748199999999969</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>36.674819999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>94</v>
       </c>
@@ -2061,13 +2384,13 @@
         <v>97</v>
       </c>
       <c r="L34">
-        <v>101.2867700000000042</v>
+        <v>101.28677</v>
       </c>
       <c r="M34">
-        <v>36.6748199999999969</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>36.674819999999997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>94</v>
       </c>
@@ -2102,13 +2425,13 @@
         <v>97</v>
       </c>
       <c r="L35">
-        <v>101.2867700000000042</v>
+        <v>101.28677</v>
       </c>
       <c r="M35">
-        <v>36.6748199999999969</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>36.674819999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>76</v>
       </c>
@@ -2143,13 +2466,13 @@
         <v>75</v>
       </c>
       <c r="L36">
-        <v>103.0252054000000044</v>
+        <v>103.0252054</v>
       </c>
       <c r="M36">
-        <v>36.1605472000000034</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>36.160547200000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>83</v>
       </c>
@@ -2184,13 +2507,13 @@
         <v>21</v>
       </c>
       <c r="L37">
-        <v>102.8303604000000036</v>
+        <v>102.8303604</v>
       </c>
       <c r="M37">
-        <v>36.5864592000000002</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>36.5864592</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>86</v>
       </c>
@@ -2225,13 +2548,13 @@
         <v>21</v>
       </c>
       <c r="L38">
-        <v>102.7681814000000031</v>
+        <v>102.7681814</v>
       </c>
       <c r="M38">
-        <v>36.6287402000000029</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>36.628740200000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>89</v>
       </c>
@@ -2266,13 +2589,13 @@
         <v>91</v>
       </c>
       <c r="L39">
-        <v>102.9810099999999977</v>
+        <v>102.98101</v>
       </c>
       <c r="M39">
-        <v>35.4966700000000017</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>35.496670000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>92</v>
       </c>
@@ -2307,13 +2630,13 @@
         <v>33</v>
       </c>
       <c r="L40">
-        <v>102.0572484000000060</v>
+        <v>102.05724840000001</v>
       </c>
       <c r="M40">
-        <v>35.6167871999999974</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>35.616787199999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>94</v>
       </c>
@@ -2348,13 +2671,13 @@
         <v>97</v>
       </c>
       <c r="L41">
-        <v>101.2867700000000042</v>
+        <v>101.28677</v>
       </c>
       <c r="M41">
-        <v>36.6748199999999969</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>36.674819999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>110</v>
       </c>
@@ -2389,13 +2712,13 @@
         <v>33</v>
       </c>
       <c r="L42">
-        <v>102.5664682000000028</v>
+        <v>102.5664682</v>
       </c>
       <c r="M42">
-        <v>37.9274789999999982</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>37.927478999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>110</v>
       </c>
@@ -2430,13 +2753,13 @@
         <v>33</v>
       </c>
       <c r="L43">
-        <v>102.5664682000000028</v>
+        <v>102.5664682</v>
       </c>
       <c r="M43">
-        <v>37.9274789999999982</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>37.927478999999998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>114</v>
       </c>
@@ -2471,13 +2794,13 @@
         <v>75</v>
       </c>
       <c r="L44">
-        <v>102.5761004000000014</v>
+        <v>102.5761004</v>
       </c>
       <c r="M44">
-        <v>38.1537721999999988</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>38.153772199999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>114</v>
       </c>
@@ -2512,13 +2835,13 @@
         <v>75</v>
       </c>
       <c r="L45">
-        <v>102.5761004000000014</v>
+        <v>102.5761004</v>
       </c>
       <c r="M45">
-        <v>38.1537721999999988</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>38.153772199999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>114</v>
       </c>
@@ -2553,13 +2876,13 @@
         <v>75</v>
       </c>
       <c r="L46">
-        <v>102.5761004000000014</v>
+        <v>102.5761004</v>
       </c>
       <c r="M46">
-        <v>38.1537721999999988</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>38.153772199999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>121</v>
       </c>
@@ -2594,13 +2917,13 @@
         <v>91</v>
       </c>
       <c r="L47">
-        <v>102.7214404000000059</v>
+        <v>102.72144040000001</v>
       </c>
       <c r="M47">
-        <v>37.8953002000000012</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>37.895300200000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>110</v>
       </c>
@@ -2635,13 +2958,13 @@
         <v>33</v>
       </c>
       <c r="L48">
-        <v>102.5664682000000028</v>
+        <v>102.5664682</v>
       </c>
       <c r="M48">
-        <v>37.9274789999999982</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>37.927478999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>125</v>
       </c>
@@ -2676,13 +2999,13 @@
         <v>33</v>
       </c>
       <c r="L49">
-        <v>103.5895471999999984</v>
+        <v>103.5895472</v>
       </c>
       <c r="M49">
-        <v>39.1190005999999997</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>39.1190006</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>114</v>
       </c>
@@ -2717,13 +3040,13 @@
         <v>75</v>
       </c>
       <c r="L50">
-        <v>102.5761004000000014</v>
+        <v>102.5761004</v>
       </c>
       <c r="M50">
-        <v>38.1537721999999988</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>38.153772199999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>121</v>
       </c>
@@ -2758,13 +3081,13 @@
         <v>91</v>
       </c>
       <c r="L51">
-        <v>102.7214404000000059</v>
+        <v>102.72144040000001</v>
       </c>
       <c r="M51">
-        <v>37.8953002000000012</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>37.895300200000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>128</v>
       </c>
@@ -2799,13 +3122,13 @@
         <v>91</v>
       </c>
       <c r="L52">
-        <v>100.4026300000000020</v>
+        <v>100.40263</v>
       </c>
       <c r="M52">
-        <v>38.9634100000000032</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>38.963410000000003</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>132</v>
       </c>
@@ -2840,13 +3163,13 @@
         <v>49</v>
       </c>
       <c r="L53">
-        <v>101.4986600000000010</v>
+        <v>101.49866</v>
       </c>
       <c r="M53">
-        <v>38.4400800000000018</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>38.440080000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>136</v>
       </c>
@@ -2881,13 +3204,13 @@
         <v>138</v>
       </c>
       <c r="L54">
-        <v>101.1628500000000059</v>
+        <v>101.16285000000001</v>
       </c>
       <c r="M54">
-        <v>41.8358599999999967</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>41.835859999999997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>128</v>
       </c>
@@ -2922,13 +3245,13 @@
         <v>91</v>
       </c>
       <c r="L55">
-        <v>100.4026300000000020</v>
+        <v>100.40263</v>
       </c>
       <c r="M55">
-        <v>38.9634100000000032</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>38.963410000000003</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>141</v>
       </c>
@@ -2963,13 +3286,13 @@
         <v>21</v>
       </c>
       <c r="L56">
-        <v>101.0879599999999954</v>
+        <v>101.08796</v>
       </c>
       <c r="M56">
-        <v>38.7811000000000021</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>38.781100000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>132</v>
       </c>
@@ -3004,13 +3327,13 @@
         <v>49</v>
       </c>
       <c r="L57">
-        <v>101.4986600000000010</v>
+        <v>101.49866</v>
       </c>
       <c r="M57">
-        <v>38.4400800000000018</v>
-      </c>
-    </row>
-    <row r="58">
+        <v>38.440080000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>144</v>
       </c>
@@ -3045,13 +3368,13 @@
         <v>21</v>
       </c>
       <c r="L58">
-        <v>101.8415300000000059</v>
+        <v>101.84153000000001</v>
       </c>
       <c r="M58">
-        <v>38.2479000000000013</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>38.247900000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>136</v>
       </c>
@@ -3086,13 +3409,13 @@
         <v>138</v>
       </c>
       <c r="L59">
-        <v>101.1628500000000059</v>
+        <v>101.16285000000001</v>
       </c>
       <c r="M59">
-        <v>41.8358599999999967</v>
-      </c>
-    </row>
-    <row r="60">
+        <v>41.835859999999997</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>148</v>
       </c>
@@ -3127,13 +3450,13 @@
         <v>75</v>
       </c>
       <c r="L60">
-        <v>98.3691675000000032</v>
+        <v>98.369167500000003</v>
       </c>
       <c r="M60">
-        <v>39.7238226999999995</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>39.723822699999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>153</v>
       </c>
@@ -3168,13 +3491,13 @@
         <v>21</v>
       </c>
       <c r="L61">
-        <v>99.5786133999999947</v>
+        <v>99.578613399999995</v>
       </c>
       <c r="M61">
-        <v>39.6320902000000004</v>
-      </c>
-    </row>
-    <row r="62">
+        <v>39.6320902</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>153</v>
       </c>
@@ -3209,13 +3532,13 @@
         <v>21</v>
       </c>
       <c r="L62">
-        <v>99.5786133999999947</v>
+        <v>99.578613399999995</v>
       </c>
       <c r="M62">
-        <v>39.6320902000000004</v>
-      </c>
-    </row>
-    <row r="63">
+        <v>39.6320902</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>153</v>
       </c>
@@ -3250,13 +3573,13 @@
         <v>21</v>
       </c>
       <c r="L63">
-        <v>99.5786133999999947</v>
+        <v>99.578613399999995</v>
       </c>
       <c r="M63">
-        <v>39.6320902000000004</v>
-      </c>
-    </row>
-    <row r="64">
+        <v>39.6320902</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>158</v>
       </c>
@@ -3291,13 +3614,13 @@
         <v>21</v>
       </c>
       <c r="L64">
-        <v>97.2414483000000018</v>
+        <v>97.241448300000002</v>
       </c>
       <c r="M64">
-        <v>40.1422030000000021</v>
-      </c>
-    </row>
-    <row r="65">
+        <v>40.142203000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>148</v>
       </c>
@@ -3332,13 +3655,13 @@
         <v>75</v>
       </c>
       <c r="L65">
-        <v>98.3691675000000032</v>
+        <v>98.369167500000003</v>
       </c>
       <c r="M65">
-        <v>39.7238226999999995</v>
-      </c>
-    </row>
-    <row r="66">
+        <v>39.723822699999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>153</v>
       </c>
@@ -3373,13 +3696,13 @@
         <v>21</v>
       </c>
       <c r="L66">
-        <v>99.5786133999999947</v>
+        <v>99.578613399999995</v>
       </c>
       <c r="M66">
-        <v>39.6320902000000004</v>
-      </c>
-    </row>
-    <row r="67">
+        <v>39.6320902</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>158</v>
       </c>
@@ -3414,13 +3737,13 @@
         <v>21</v>
       </c>
       <c r="L67">
-        <v>97.2414483000000018</v>
+        <v>97.241448300000002</v>
       </c>
       <c r="M67">
-        <v>40.1422030000000021</v>
-      </c>
-    </row>
-    <row r="68">
+        <v>40.142203000000002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>162</v>
       </c>
@@ -3455,13 +3778,13 @@
         <v>33</v>
       </c>
       <c r="L68">
-        <v>106.4605899999999963</v>
+        <v>106.46059</v>
       </c>
       <c r="M68">
-        <v>35.8599299999999985</v>
-      </c>
-    </row>
-    <row r="69">
+        <v>35.859929999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>166</v>
       </c>
@@ -3496,13 +3819,13 @@
         <v>33</v>
       </c>
       <c r="L69">
-        <v>106.4747100000000017</v>
+        <v>106.47471</v>
       </c>
       <c r="M69">
-        <v>35.5383100000000027</v>
-      </c>
-    </row>
-    <row r="70">
+        <v>35.538310000000003</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>168</v>
       </c>
@@ -3531,7 +3854,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>170</v>
       </c>
@@ -3566,13 +3889,13 @@
         <v>29</v>
       </c>
       <c r="L71">
-        <v>106.7263293999999973</v>
+        <v>106.7263294</v>
       </c>
       <c r="M71">
-        <v>35.6866271999999967</v>
-      </c>
-    </row>
-    <row r="72">
+        <v>35.686627199999997</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>173</v>
       </c>
@@ -3607,13 +3930,13 @@
         <v>29</v>
       </c>
       <c r="L72">
-        <v>107.0309563999999938</v>
+        <v>107.03095639999999</v>
       </c>
       <c r="M72">
-        <v>36.9287041999999985</v>
-      </c>
-    </row>
-    <row r="73">
+        <v>36.928704199999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>176</v>
       </c>
@@ -3648,13 +3971,13 @@
         <v>75</v>
       </c>
       <c r="L73">
-        <v>106.1340986000000015</v>
+        <v>106.1340986</v>
       </c>
       <c r="M73">
-        <v>36.0138861000000006</v>
-      </c>
-    </row>
-    <row r="74">
+        <v>36.013886100000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>162</v>
       </c>
@@ -3689,13 +4012,13 @@
         <v>33</v>
       </c>
       <c r="L74">
-        <v>106.4605899999999963</v>
+        <v>106.46059</v>
       </c>
       <c r="M74">
-        <v>35.8599299999999985</v>
-      </c>
-    </row>
-    <row r="75">
+        <v>35.859929999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>166</v>
       </c>
@@ -3730,13 +4053,13 @@
         <v>33</v>
       </c>
       <c r="L75">
-        <v>106.4747100000000017</v>
+        <v>106.47471</v>
       </c>
       <c r="M75">
-        <v>35.5383100000000027</v>
-      </c>
-    </row>
-    <row r="76">
+        <v>35.538310000000003</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>170</v>
       </c>
@@ -3771,13 +4094,13 @@
         <v>29</v>
       </c>
       <c r="L76">
-        <v>106.7263293999999973</v>
+        <v>106.7263294</v>
       </c>
       <c r="M76">
-        <v>35.6866271999999967</v>
-      </c>
-    </row>
-    <row r="77">
+        <v>35.686627199999997</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>182</v>
       </c>
@@ -3812,13 +4135,13 @@
         <v>33</v>
       </c>
       <c r="L77">
-        <v>106.8817554000000030</v>
+        <v>106.8817554</v>
       </c>
       <c r="M77">
-        <v>35.1507432000000009</v>
-      </c>
-    </row>
-    <row r="78">
+        <v>35.150743200000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>184</v>
       </c>
@@ -3853,13 +4176,13 @@
         <v>33</v>
       </c>
       <c r="L78">
-        <v>107.4794993999999946</v>
+        <v>107.47949939999999</v>
       </c>
       <c r="M78">
-        <v>36.3176541999999998</v>
-      </c>
-    </row>
-    <row r="79">
+        <v>36.3176542</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>173</v>
       </c>
@@ -3894,13 +4217,13 @@
         <v>29</v>
       </c>
       <c r="L79">
-        <v>107.0309563999999938</v>
+        <v>107.03095639999999</v>
       </c>
       <c r="M79">
-        <v>36.9287041999999985</v>
-      </c>
-    </row>
-    <row r="80">
+        <v>36.928704199999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>186</v>
       </c>
@@ -3935,13 +4258,13 @@
         <v>33</v>
       </c>
       <c r="L80">
-        <v>105.8367113999999987</v>
+        <v>105.8367114</v>
       </c>
       <c r="M80">
-        <v>37.6409731999999977</v>
-      </c>
-    </row>
-    <row r="81">
+        <v>37.640973199999998</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>187</v>
       </c>
@@ -3976,13 +4299,13 @@
         <v>192</v>
       </c>
       <c r="L81">
-        <v>94.6200900000000047</v>
+        <v>94.620090000000005</v>
       </c>
       <c r="M81">
-        <v>40.1391100000000023</v>
-      </c>
-    </row>
-    <row r="82">
+        <v>40.139110000000002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>187</v>
       </c>
@@ -4017,13 +4340,13 @@
         <v>192</v>
       </c>
       <c r="L82">
-        <v>94.6200900000000047</v>
+        <v>94.620090000000005</v>
       </c>
       <c r="M82">
-        <v>40.1391100000000023</v>
-      </c>
-    </row>
-    <row r="83">
+        <v>40.139110000000002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>187</v>
       </c>
@@ -4058,13 +4381,13 @@
         <v>192</v>
       </c>
       <c r="L83">
-        <v>94.6200900000000047</v>
+        <v>94.620090000000005</v>
       </c>
       <c r="M83">
-        <v>40.1391100000000023</v>
-      </c>
-    </row>
-    <row r="84">
+        <v>40.139110000000002</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>195</v>
       </c>
@@ -4099,13 +4422,13 @@
         <v>192</v>
       </c>
       <c r="L84">
-        <v>94.6981562999999937</v>
+        <v>94.698156299999994</v>
       </c>
       <c r="M84">
-        <v>40.2958209999999966</v>
-      </c>
-    </row>
-    <row r="85">
+        <v>40.295820999999997</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>198</v>
       </c>
@@ -4140,13 +4463,13 @@
         <v>33</v>
       </c>
       <c r="L85">
-        <v>94.1011400000000009</v>
+        <v>94.101140000000001</v>
       </c>
       <c r="M85">
-        <v>39.9053200000000032</v>
-      </c>
-    </row>
-    <row r="86">
+        <v>39.905320000000003</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>198</v>
       </c>
@@ -4181,13 +4504,13 @@
         <v>33</v>
       </c>
       <c r="L86">
-        <v>94.1011400000000009</v>
+        <v>94.101140000000001</v>
       </c>
       <c r="M86">
-        <v>39.9053200000000032</v>
-      </c>
-    </row>
-    <row r="87">
+        <v>39.905320000000003</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>187</v>
       </c>
@@ -4222,13 +4545,13 @@
         <v>192</v>
       </c>
       <c r="L87">
-        <v>94.6200900000000047</v>
+        <v>94.620090000000005</v>
       </c>
       <c r="M87">
-        <v>40.1391100000000023</v>
-      </c>
-    </row>
-    <row r="88">
+        <v>40.139110000000002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>202</v>
       </c>
@@ -4263,13 +4586,13 @@
         <v>33</v>
       </c>
       <c r="L88">
-        <v>96.2374800000000050</v>
+        <v>96.237480000000005</v>
       </c>
       <c r="M88">
-        <v>40.2405499999999989</v>
-      </c>
-    </row>
-    <row r="89">
+        <v>40.240549999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>195</v>
       </c>
@@ -4304,13 +4627,13 @@
         <v>192</v>
       </c>
       <c r="L89">
-        <v>94.6981562999999937</v>
+        <v>94.698156299999994</v>
       </c>
       <c r="M89">
-        <v>40.2958209999999966</v>
-      </c>
-    </row>
-    <row r="90">
+        <v>40.295820999999997</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" ht="13" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>198</v>
       </c>
@@ -4345,12 +4668,14 @@
         <v>33</v>
       </c>
       <c r="L90">
-        <v>94.1011400000000009</v>
+        <v>94.101140000000001</v>
       </c>
       <c r="M90">
-        <v>39.9053200000000032</v>
+        <v>39.905320000000003</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>